--- a/custom sim/test_track.xlsx
+++ b/custom sim/test_track.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EJDRO\OneDrive\Documents\GitHub\FEBSim\custom sim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0C4650-1DE1-4552-A519-70996C8A2B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31860445-D154-42CD-89C2-E983A4D36B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3216" yWindow="1698" windowWidth="19458" windowHeight="8994" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="6" r:id="rId1"/>
@@ -303,6 +303,9 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -365,9 +368,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
       </font>
@@ -389,7 +389,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C804" totalsRowCount="1" totalsRowDxfId="11">
   <autoFilter ref="A1:C803" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Type" dataDxfId="10" totalsRowDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Type" dataDxfId="3" totalsRowDxfId="2"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Section Length" totalsRowDxfId="1"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Corner Radius" totalsRowDxfId="0"/>
   </tableColumns>
@@ -398,18 +398,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:B3" totalsRowShown="0" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:B3" totalsRowShown="0" dataDxfId="10">
   <autoFilter ref="A1:B3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Point [m]" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Elevation [m]" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Point [m]" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Elevation [m]" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A1:B3" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A1:B3" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <autoFilter ref="A1:B3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Start Point [m]"/>
@@ -773,7 +773,7 @@
   <dimension ref="A1:C804"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -807,24 +807,25 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <f>PI()*50</f>
+        <v>157.07963267948966</v>
+      </c>
+      <c r="C3" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
-        <v>50</v>
-      </c>
-      <c r="C3">
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
         <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1">
-        <v>100</v>
-      </c>
-      <c r="C4" s="1">
-        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
